--- a/3_output/tablas/cap2/tablas_cap2.xlsx
+++ b/3_output/tablas/cap2/tablas_cap2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristobal\Google Drive\Investigación y proyectos\[LST] Determinantes del Apego Barrial\apego-barrial\3_output\tablas\cap2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/apego-barrial/3_output/tablas/cap2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825BDCC-D84F-44FE-AEEE-3D8B1169F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptivos" sheetId="3" r:id="rId1"/>
@@ -2132,7 +2132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2147,28 +2147,27 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2183,23 +2182,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2208,10 +2200,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2220,11 +2212,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2232,39 +2224,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2552,17 +2540,17 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
@@ -2583,11 +2571,11 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2621,11 +2609,11 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2635,10 +2623,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2796,10 +2784,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -2859,10 +2847,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2987,10 +2975,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2"/>
       <c r="E21" s="5"/>
       <c r="F21" s="2"/>
@@ -3025,10 +3013,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3088,10 +3076,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1"/>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -3151,10 +3139,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1"/>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3214,10 +3202,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3277,17 +3265,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3298,67 +3286,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E4C44-E2AE-4919-936C-036D312743E5}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3376,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
         <v>117</v>
@@ -3416,21 +3404,21 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>81</v>
       </c>
@@ -3452,8 +3440,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
@@ -3472,26 +3460,26 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
         <v>165</v>
       </c>
@@ -3508,10 +3496,10 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="6" t="s">
         <v>117</v>
       </c>
@@ -3528,12 +3516,12 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="6" t="s">
         <v>168</v>
       </c>
@@ -3550,10 +3538,10 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="6" t="s">
         <v>82</v>
       </c>
@@ -3569,27 +3557,27 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.5">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:10" ht="25">
+      <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="6" t="s">
         <v>172</v>
       </c>
@@ -3606,10 +3594,10 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="6" t="s">
         <v>124</v>
       </c>
@@ -3626,12 +3614,12 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="6" t="s">
         <v>175</v>
       </c>
@@ -3648,10 +3636,10 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="6" t="s">
         <v>125</v>
       </c>
@@ -3668,21 +3656,21 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
@@ -3704,7 +3692,7 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3724,7 +3712,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="6" t="s">
         <v>126</v>
       </c>
@@ -3746,7 +3734,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3766,40 +3754,40 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="1"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="25.5">
-      <c r="A24" s="11"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="25">
+      <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="6" t="s">
         <v>184</v>
       </c>
@@ -3816,10 +3804,10 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="6" t="s">
         <v>127</v>
       </c>
@@ -3836,8 +3824,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="11"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="6"/>
@@ -3858,7 +3846,7 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -3878,7 +3866,7 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="6" t="s">
         <v>41</v>
       </c>
@@ -3900,7 +3888,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3920,21 +3908,21 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="6" t="s">
         <v>95</v>
       </c>
@@ -3956,8 +3944,8 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3976,21 +3964,21 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="6" t="s">
         <v>111</v>
       </c>
@@ -4012,7 +4000,7 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4032,21 +4020,21 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="39"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="6" t="s">
         <v>112</v>
       </c>
@@ -4068,7 +4056,7 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="11"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -4088,21 +4076,21 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="39"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="1"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="11"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="6" t="s">
         <v>97</v>
       </c>
@@ -4124,7 +4112,7 @@
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="11"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -4144,97 +4132,97 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="11"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>1843113</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>1839964</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>1267670</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>1267015</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>1793973</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>1812581</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>1279897</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>1284491</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="11"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>1856826</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>1853676</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>1325319</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>1324664</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>1825940</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>1844547</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>1355202</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>1359796</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>-918557</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>-916982</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>-620835</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>-620507</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>-889987</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>-899290</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>-622948</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>-625245</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="6" t="s">
         <v>102</v>
       </c>
@@ -4264,7 +4252,7 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="11"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="6" t="s">
         <v>103</v>
       </c>
@@ -4294,7 +4282,7 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="11"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="6" t="s">
         <v>104</v>
       </c>
@@ -4324,7 +4312,7 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="11"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="6" t="s">
         <v>107</v>
       </c>
@@ -4354,18 +4342,18 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -4394,38 +4382,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30861C5-A804-493E-B49F-017A309956A4}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4443,17 +4431,17 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
         <v>81</v>
       </c>
@@ -4467,17 +4455,17 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -4491,7 +4479,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
@@ -4504,8 +4492,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25.5">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:6" ht="25">
+      <c r="A8" s="10"/>
       <c r="B8" s="6" t="s">
         <v>110</v>
       </c>
@@ -4515,8 +4503,8 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="6"/>
@@ -4529,8 +4517,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="6"/>
@@ -4543,18 +4531,18 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="30" t="s">
         <v>337</v>
       </c>
       <c r="C12" s="6"/>
@@ -4567,8 +4555,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="30" t="s">
         <v>339</v>
       </c>
       <c r="C13" s="6"/>
@@ -4581,18 +4569,18 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="6"/>
@@ -4601,8 +4589,8 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="6"/>
@@ -4615,8 +4603,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="6"/>
@@ -4629,7 +4617,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="6" t="s">
         <v>338</v>
       </c>
@@ -4643,17 +4631,17 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="6" t="s">
         <v>95</v>
       </c>
@@ -4667,17 +4655,17 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="6" t="s">
         <v>111</v>
       </c>
@@ -4691,17 +4679,17 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>112</v>
       </c>
@@ -4715,17 +4703,17 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="6" t="s">
         <v>97</v>
       </c>
@@ -4763,16 +4751,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="1" t="s">
         <v>199</v>
       </c>
@@ -4788,17 +4776,17 @@
       <c r="G1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="42"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="1" t="s">
         <v>199</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>201</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -4809,22 +4797,22 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="J2" s="42"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="13"/>
+      <c r="M2" s="12"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -4858,7 +4846,7 @@
       <c r="L3" s="1">
         <v>0.11</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -4898,7 +4886,7 @@
       <c r="L4" s="1">
         <v>0.01</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -4938,7 +4926,7 @@
       <c r="L5" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="12">
         <v>3.1E-2</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -4978,7 +4966,7 @@
       <c r="L6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -4989,22 +4977,22 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="39"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="13"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
@@ -5038,7 +5026,7 @@
       <c r="L8" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>0.126</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -5078,7 +5066,7 @@
       <c r="L9" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -5118,7 +5106,7 @@
       <c r="L10" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>0.05</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -5158,7 +5146,7 @@
       <c r="L11" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -5190,1160 +5178,1160 @@
       <selection activeCell="B50" sqref="B50:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="13"/>
+      <c r="P1" s="12"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="13"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <v>-1328</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>275</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="13"/>
+      <c r="P3" s="12"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>264</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="I4" s="16"/>
+      <c r="L4" s="16"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="13"/>
+      <c r="P4" s="12"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:18" ht="15.5">
+      <c r="A5" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="13"/>
+      <c r="P5" s="12"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>163</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="I6" s="16"/>
+      <c r="L6" s="16"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="13"/>
+      <c r="P6" s="12"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>121</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="I7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="13"/>
+      <c r="P7" s="12"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="15.75">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:18" ht="15.5">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="23"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="13"/>
+      <c r="P8" s="12"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>277</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="13"/>
+      <c r="P9" s="12"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>247</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="13"/>
+      <c r="P10" s="12"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>170</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="13"/>
+      <c r="P11" s="12"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
-      <c r="A13" s="11"/>
+      <c r="I12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.5">
+      <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>123</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>236</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="I15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>280</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>222</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="17"/>
-      <c r="L17" s="17"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="39" t="s">
+      <c r="I17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.5">
+      <c r="A18" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="23"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>282</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="I20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="11"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>249</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="I21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="17"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="39" t="s">
+      <c r="I22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.5">
+      <c r="A23" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="23"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="11"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.5">
+      <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="23"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="16"/>
+      <c r="L24" s="16"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>283</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="I25" s="16"/>
+      <c r="L25" s="16"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>238</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="I26" s="16"/>
+      <c r="L26" s="16"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>285</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="I27" s="16"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>239</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="I28" s="16"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>287</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="I29" s="16"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>265</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="17"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75">
-      <c r="A31" s="39" t="s">
+      <c r="I30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.5">
+      <c r="A31" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="23"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>205</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="I32" s="16"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="22" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="17"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" ht="15.75">
-      <c r="A34" s="39" t="s">
+      <c r="I33" s="16"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.5">
+      <c r="A34" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="23"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>290</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="I35" s="16"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>266</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="17"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" ht="15.75">
-      <c r="A37" s="39" t="s">
+      <c r="I36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.5">
+      <c r="A37" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="23"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="16"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>268</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="17"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="15.75">
-      <c r="A39" s="11"/>
+      <c r="I38" s="16"/>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.5">
+      <c r="A39" s="10"/>
       <c r="B39" s="6"/>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>255</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="17"/>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="15.75">
-      <c r="A40" s="39" t="s">
+      <c r="I39" s="16"/>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.5">
+      <c r="A40" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="23"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="2"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12" ht="15.75">
-      <c r="A41" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="16"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.5">
+      <c r="A41" s="10"/>
       <c r="B41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>292</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75">
-      <c r="A42" s="11"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="16"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.5">
+      <c r="A42" s="10"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>267</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="17"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="16"/>
     </row>
     <row r="43" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
     </row>
     <row r="44" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A44" s="15"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D44" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
     </row>
     <row r="45" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A45" s="15"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
     </row>
     <row r="46" spans="1:12" ht="28.5" customHeight="1">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="D46" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
     </row>
     <row r="47" spans="1:12" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A47" s="11"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
     </row>
     <row r="48" spans="1:12" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="26" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
     </row>
     <row r="49" spans="1:13" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A49" s="11"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-    </row>
-    <row r="50" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="26" t="s">
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+    </row>
+    <row r="50" spans="1:13" ht="16" thickBot="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="28" t="s">
         <v>294</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
     </row>
     <row r="51" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A51" s="11"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="25" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="21" t="s">
         <v>269</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75">
-      <c r="A52" s="11"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.5">
+      <c r="A52" s="10"/>
       <c r="B52" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="25" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="21" t="s">
         <v>296</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="19"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
+      <c r="I52" s="18"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A53" s="11"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="25" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="21" t="s">
         <v>135</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="19"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
+      <c r="I53" s="18"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="11"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>1205924</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>1209087</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="9">
         <v>1199130</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>1203691</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>1298948</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>1302112</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="9">
         <v>1292154</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>1296716</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="11"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>-581962</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>-583544</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="9">
         <v>-578565</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>-580846</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A57" s="11"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="6" t="s">
         <v>226</v>
       </c>
@@ -6363,7 +6351,7 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="11"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="6" t="s">
         <v>227</v>
       </c>
@@ -6385,7 +6373,7 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="11"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="6" t="s">
         <v>228</v>
       </c>
@@ -6407,7 +6395,7 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="11"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="6" t="s">
         <v>230</v>
       </c>
@@ -6429,7 +6417,7 @@
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1">
-      <c r="A61" s="12"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="6" t="s">
         <v>232</v>
       </c>
@@ -6445,13 +6433,13 @@
       <c r="F61" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="7"/>
+      <c r="A62" s="1"/>
       <c r="B62" s="6" t="s">
         <v>107</v>
       </c>
@@ -6467,30 +6455,35 @@
       <c r="F62" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="G62" s="20"/>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="20"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="20"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="L51:M51"/>
@@ -6507,11 +6500,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
